--- a/2800.xlsx
+++ b/2800.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c060ac0a7f9c7ae2/main/CRAMC_Desktop/EU/BOND_EQT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\main\I9_allocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{8CD7B39E-B47B-41DE-AEBD-C2D2E5AE016E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10F0F382-EDA4-4FB4-8655-0BA5B5BE0BAB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7369AF80-F36B-4222-AC2C-7BAB66DAA86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,22 +127,22 @@
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
-      <tp t="s">
-        <v>#N/A N/A</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDH|15456289008103822334</stp>
         <tr r="C1" s="2"/>
       </tp>
     </main>
     <main first="bofaddin.rtdserver">
-      <tp t="s">
-        <v>#N/A N/A</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDH|8205904497243174094</stp>
         <tr r="D1" s="2"/>
       </tp>
-      <tp t="s">
-        <v>#N/A N/A</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>BDH|8229872925694600507</stp>
         <tr r="A1" s="2"/>
@@ -417,8 +417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1887"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1835" workbookViewId="0">
-      <selection activeCell="C1886" sqref="C1886"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21192,14 +21192,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44AB31A-70CE-4A6E-A84E-7592026AAEFA}">
   <dimension ref="A1:E1887"/>
   <sheetViews>
-    <sheetView topLeftCell="A1801" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1886"/>
+    <sheetView topLeftCell="A1775" workbookViewId="0">
+      <selection activeCell="L1785" sqref="L1785"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="4" width="9.140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="9.140625" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
